--- a/biology/Zoologie/Coptoprepes_flavopilosus/Coptoprepes_flavopilosus.xlsx
+++ b/biology/Zoologie/Coptoprepes_flavopilosus/Coptoprepes_flavopilosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coptoprepes flavopilosus est une espèce d'araignées aranéomorphes de la famille des Anyphaenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coptoprepes flavopilosus est une espèce d'araignées aranéomorphes de la famille des Anyphaenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Chili dans les régions des Lacs d'Aisén et de Magallanes et en Argentine dans les provinces de  Río Negro, de Chubut, de  Santa Cruz et de Terre de Feu[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Chili dans les régions des Lacs d'Aisén et de Magallanes et en Argentine dans les provinces de  Río Negro, de Chubut, de  Santa Cruz et de Terre de Feu.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Ramírez en 2003 mesure 4,40 mm et la femelle 5,35 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Ramírez en 2003 mesure 4,40 mm et la femelle 5,35 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Simon, 1884 : Arachnides recueillis par la Mission du Cap Horn en 1882-1883. Bulletin de la Société zoologique de France, vol. 9, p. 117-144 (texte intégral).</t>
         </is>
